--- a/hk-award/src/main/resources/user.xlsx
+++ b/hk-award/src/main/resources/user.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22635" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>部门名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +31,54 @@
   </si>
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +441,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -414,62 +463,129 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13888888888</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13188888888</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13288888888</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13388888888</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13488888888</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>13588888888</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13688888888</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13788888888</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13828888888</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13888883888</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13888888878</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>